--- a/data_year/zb/农业/农用柴油和农药使用量.xlsx
+++ b/data_year/zb/农业/农用柴油和农药使用量.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,260 +448,130 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1404.9978</v>
+        <v>2023.1181</v>
       </c>
       <c r="C2" t="n">
-        <v>127.953303</v>
+        <v>175.8219272</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1485.2522</v>
+        <v>2057.4404015</v>
       </c>
       <c r="C3" t="n">
-        <v>127.481976</v>
+        <v>178.7001839</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1507.47</v>
+        <v>2107.6484</v>
       </c>
       <c r="C4" t="n">
-        <v>131.125938</v>
+        <v>180.6057204</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1574.6283</v>
+        <v>2154.943653</v>
       </c>
       <c r="C5" t="n">
-        <v>132.522636</v>
+        <v>180.770375</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1819.47</v>
+        <v>2176.317746</v>
       </c>
       <c r="C6" t="n">
-        <v>138.602804</v>
+        <v>180.33147194</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1902.6589</v>
+        <v>2197.6810583</v>
       </c>
       <c r="C7" t="n">
-        <v>145.9945025</v>
+        <v>178.29693251</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1922.7815</v>
+        <v>2117.0837779</v>
       </c>
       <c r="C8" t="n">
-        <v>153.710344</v>
+        <v>174.04585952</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2020.80965</v>
+        <v>2095.1126237</v>
       </c>
       <c r="C9" t="n">
-        <v>162.2836698</v>
+        <v>165.506603081</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1887.854433</v>
+        <v>2003.391689</v>
       </c>
       <c r="C10" t="n">
-        <v>167.225916</v>
+        <v>150.355276843</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1959.894703</v>
+        <v>1934</v>
       </c>
       <c r="C11" t="n">
-        <v>170.8997738</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>2023.1181</v>
-      </c>
-      <c r="C12" t="n">
-        <v>175.8219272</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>2057.4404015</v>
-      </c>
-      <c r="C13" t="n">
-        <v>178.7001839</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>2107.6484</v>
-      </c>
-      <c r="C14" t="n">
-        <v>180.6057204</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>2154.943653</v>
-      </c>
-      <c r="C15" t="n">
-        <v>180.770375</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>2176.317746</v>
-      </c>
-      <c r="C16" t="n">
-        <v>180.33147194</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>2197.6810583</v>
-      </c>
-      <c r="C17" t="n">
-        <v>178.29693251</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>2117.0837779</v>
-      </c>
-      <c r="C18" t="n">
-        <v>174.04585952</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>2095.1126237</v>
-      </c>
-      <c r="C19" t="n">
-        <v>165.506603081</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>2003.391689</v>
-      </c>
-      <c r="C20" t="n">
-        <v>150.355276843</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>1934</v>
-      </c>
-      <c r="C21" t="n">
         <v>139.1747</v>
       </c>
     </row>
